--- a/inst/extdata/example.xlsx
+++ b/inst/extdata/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigicolin/PhD/work_local/Trinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A7C85E-3786-BF43-9585-BC1CBDF1C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF8745-CBA5-E745-A65C-1416CB899079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="13760" windowWidth="27240" windowHeight="16440" xr2:uid="{B8480783-9FDB-FF4C-BE76-83D6E251431F}"/>
+    <workbookView xWindow="16860" yWindow="12360" windowWidth="27240" windowHeight="16440" xr2:uid="{B8480783-9FDB-FF4C-BE76-83D6E251431F}"/>
   </bookViews>
   <sheets>
     <sheet name="cbass_dataset" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="20">
   <si>
     <t>DEU</t>
   </si>
@@ -54,24 +54,6 @@
   </si>
   <si>
     <t>Feldberg</t>
-  </si>
-  <si>
-    <t>DEU Zugspitze 20221114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.98632 </t>
-  </si>
-  <si>
-    <t>DEU Zugspitze 20221115</t>
-  </si>
-  <si>
-    <t>DEU Zugspitze 20221113</t>
-  </si>
-  <si>
-    <t>DEU Feldberg 20221116</t>
-  </si>
-  <si>
-    <t>DEU Feldberg 20221112</t>
   </si>
   <si>
     <t>Project</t>
@@ -109,12 +91,15 @@
   <si>
     <t>Pam_value</t>
   </si>
+  <si>
+    <t>202211_DEU_Zugspitze-Feldberg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +232,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,8 +582,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -971,7 +963,7 @@
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D162" sqref="D162:E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,45 +984,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>20221114</v>
@@ -1041,8 +1033,8 @@
       <c r="D2">
         <v>47.421230000000001</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>10.986319999999999</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1068,7 +1060,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>20221114</v>
@@ -1079,8 +1071,8 @@
       <c r="D3">
         <v>47.421230000000001</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3">
+        <v>10.986319999999999</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -1106,7 +1098,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>20221114</v>
@@ -1117,8 +1109,8 @@
       <c r="D4">
         <v>47.421230000000001</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="E4">
+        <v>10.986319999999999</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1144,7 +1136,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>20221114</v>
@@ -1155,8 +1147,8 @@
       <c r="D5">
         <v>47.421230000000001</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="E5">
+        <v>10.986319999999999</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1182,7 +1174,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>20221114</v>
@@ -1193,8 +1185,8 @@
       <c r="D6">
         <v>47.421230000000001</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
+      <c r="E6">
+        <v>10.986319999999999</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -1220,7 +1212,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>20221115</v>
@@ -1231,8 +1223,8 @@
       <c r="D7">
         <v>47.421230000000001</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
+      <c r="E7">
+        <v>10.986319999999999</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -1258,7 +1250,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>20221115</v>
@@ -1269,8 +1261,8 @@
       <c r="D8">
         <v>47.421230000000001</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
+      <c r="E8">
+        <v>10.986319999999999</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1296,7 +1288,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>20221115</v>
@@ -1307,8 +1299,8 @@
       <c r="D9">
         <v>47.421230000000001</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
+      <c r="E9">
+        <v>10.986319999999999</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -1334,7 +1326,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>20221115</v>
@@ -1345,8 +1337,8 @@
       <c r="D10">
         <v>47.421230000000001</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
+      <c r="E10">
+        <v>10.986319999999999</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -1372,7 +1364,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>20221115</v>
@@ -1383,8 +1375,8 @@
       <c r="D11">
         <v>47.421230000000001</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
+      <c r="E11">
+        <v>10.986319999999999</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -1410,7 +1402,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>20221114</v>
@@ -1421,8 +1413,8 @@
       <c r="D12">
         <v>47.421230000000001</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="E12">
+        <v>10.986319999999999</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -1448,7 +1440,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>20221114</v>
@@ -1459,8 +1451,8 @@
       <c r="D13">
         <v>47.421230000000001</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
+      <c r="E13">
+        <v>10.986319999999999</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -1486,7 +1478,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>20221114</v>
@@ -1497,8 +1489,8 @@
       <c r="D14">
         <v>47.421230000000001</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
+      <c r="E14">
+        <v>10.986319999999999</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -1524,7 +1516,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>20221114</v>
@@ -1535,8 +1527,8 @@
       <c r="D15">
         <v>47.421230000000001</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
+      <c r="E15">
+        <v>10.986319999999999</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
@@ -1562,7 +1554,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>20221114</v>
@@ -1573,8 +1565,8 @@
       <c r="D16">
         <v>47.421230000000001</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
+      <c r="E16">
+        <v>10.986319999999999</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
@@ -1600,7 +1592,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>20221115</v>
@@ -1611,8 +1603,8 @@
       <c r="D17">
         <v>47.421230000000001</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
+      <c r="E17">
+        <v>10.986319999999999</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -1638,7 +1630,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>20221115</v>
@@ -1649,8 +1641,8 @@
       <c r="D18">
         <v>47.421230000000001</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
+      <c r="E18">
+        <v>10.986319999999999</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -1676,7 +1668,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>20221115</v>
@@ -1687,8 +1679,8 @@
       <c r="D19">
         <v>47.421230000000001</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
+      <c r="E19">
+        <v>10.986319999999999</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -1714,7 +1706,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>20221115</v>
@@ -1725,8 +1717,8 @@
       <c r="D20">
         <v>47.421230000000001</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
+      <c r="E20">
+        <v>10.986319999999999</v>
       </c>
       <c r="F20" t="s">
         <v>1</v>
@@ -1752,7 +1744,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>20221115</v>
@@ -1763,8 +1755,8 @@
       <c r="D21">
         <v>47.421230000000001</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
+      <c r="E21">
+        <v>10.986319999999999</v>
       </c>
       <c r="F21" t="s">
         <v>1</v>
@@ -1790,7 +1782,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>20221114</v>
@@ -1801,8 +1793,8 @@
       <c r="D22">
         <v>47.421230000000001</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
+      <c r="E22">
+        <v>10.986319999999999</v>
       </c>
       <c r="F22" t="s">
         <v>1</v>
@@ -1828,7 +1820,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>20221114</v>
@@ -1839,8 +1831,8 @@
       <c r="D23">
         <v>47.421230000000001</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
+      <c r="E23">
+        <v>10.986319999999999</v>
       </c>
       <c r="F23" t="s">
         <v>1</v>
@@ -1866,7 +1858,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>20221114</v>
@@ -1877,8 +1869,8 @@
       <c r="D24">
         <v>47.421230000000001</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
+      <c r="E24">
+        <v>10.986319999999999</v>
       </c>
       <c r="F24" t="s">
         <v>1</v>
@@ -1904,7 +1896,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>20221114</v>
@@ -1915,8 +1907,8 @@
       <c r="D25">
         <v>47.421230000000001</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
+      <c r="E25">
+        <v>10.986319999999999</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -1942,7 +1934,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>20221114</v>
@@ -1953,8 +1945,8 @@
       <c r="D26">
         <v>47.421230000000001</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
+      <c r="E26">
+        <v>10.986319999999999</v>
       </c>
       <c r="F26" t="s">
         <v>1</v>
@@ -1980,7 +1972,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>20221115</v>
@@ -1991,8 +1983,8 @@
       <c r="D27">
         <v>47.421230000000001</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
+      <c r="E27">
+        <v>10.986319999999999</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -2018,7 +2010,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>20221115</v>
@@ -2029,8 +2021,8 @@
       <c r="D28">
         <v>47.421230000000001</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="E28">
+        <v>10.986319999999999</v>
       </c>
       <c r="F28" t="s">
         <v>1</v>
@@ -2056,7 +2048,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>20221115</v>
@@ -2067,8 +2059,8 @@
       <c r="D29">
         <v>47.421230000000001</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="E29">
+        <v>10.986319999999999</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -2094,7 +2086,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>20221115</v>
@@ -2105,8 +2097,8 @@
       <c r="D30">
         <v>47.421230000000001</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="E30">
+        <v>10.986319999999999</v>
       </c>
       <c r="F30" t="s">
         <v>1</v>
@@ -2132,7 +2124,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>20221115</v>
@@ -2143,8 +2135,8 @@
       <c r="D31">
         <v>47.421230000000001</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
+      <c r="E31">
+        <v>10.986319999999999</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
@@ -2170,7 +2162,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>20221114</v>
@@ -2181,8 +2173,8 @@
       <c r="D32">
         <v>47.421230000000001</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
+      <c r="E32">
+        <v>10.986319999999999</v>
       </c>
       <c r="F32" t="s">
         <v>1</v>
@@ -2208,7 +2200,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>20221114</v>
@@ -2219,8 +2211,8 @@
       <c r="D33">
         <v>47.421230000000001</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
+      <c r="E33">
+        <v>10.986319999999999</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
@@ -2246,7 +2238,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>20221114</v>
@@ -2257,8 +2249,8 @@
       <c r="D34">
         <v>47.421230000000001</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
+      <c r="E34">
+        <v>10.986319999999999</v>
       </c>
       <c r="F34" t="s">
         <v>1</v>
@@ -2284,7 +2276,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>20221114</v>
@@ -2295,8 +2287,8 @@
       <c r="D35">
         <v>47.421230000000001</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
+      <c r="E35">
+        <v>10.986319999999999</v>
       </c>
       <c r="F35" t="s">
         <v>1</v>
@@ -2322,7 +2314,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>20221114</v>
@@ -2333,8 +2325,8 @@
       <c r="D36">
         <v>47.421230000000001</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
+      <c r="E36">
+        <v>10.986319999999999</v>
       </c>
       <c r="F36" t="s">
         <v>1</v>
@@ -2360,7 +2352,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>20221115</v>
@@ -2371,8 +2363,8 @@
       <c r="D37">
         <v>47.421230000000001</v>
       </c>
-      <c r="E37" t="s">
-        <v>8</v>
+      <c r="E37">
+        <v>10.986319999999999</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -2398,7 +2390,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>20221115</v>
@@ -2409,8 +2401,8 @@
       <c r="D38">
         <v>47.421230000000001</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
+      <c r="E38">
+        <v>10.986319999999999</v>
       </c>
       <c r="F38" t="s">
         <v>1</v>
@@ -2436,7 +2428,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>20221115</v>
@@ -2447,8 +2439,8 @@
       <c r="D39">
         <v>47.421230000000001</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
+      <c r="E39">
+        <v>10.986319999999999</v>
       </c>
       <c r="F39" t="s">
         <v>1</v>
@@ -2474,7 +2466,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>20221115</v>
@@ -2485,8 +2477,8 @@
       <c r="D40">
         <v>47.421230000000001</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
+      <c r="E40">
+        <v>10.986319999999999</v>
       </c>
       <c r="F40" t="s">
         <v>1</v>
@@ -2512,7 +2504,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>20221115</v>
@@ -2523,8 +2515,8 @@
       <c r="D41">
         <v>47.421230000000001</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
+      <c r="E41">
+        <v>10.986319999999999</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
@@ -2550,7 +2542,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>20221113</v>
@@ -2561,8 +2553,8 @@
       <c r="D42">
         <v>47.421230000000001</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
+      <c r="E42">
+        <v>10.986319999999999</v>
       </c>
       <c r="F42" t="s">
         <v>1</v>
@@ -2588,7 +2580,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>20221113</v>
@@ -2599,8 +2591,8 @@
       <c r="D43">
         <v>47.421230000000001</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
+      <c r="E43">
+        <v>10.986319999999999</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
@@ -2626,7 +2618,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>20221113</v>
@@ -2637,8 +2629,8 @@
       <c r="D44">
         <v>47.421230000000001</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
+      <c r="E44">
+        <v>10.986319999999999</v>
       </c>
       <c r="F44" t="s">
         <v>1</v>
@@ -2664,7 +2656,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>20221113</v>
@@ -2675,8 +2667,8 @@
       <c r="D45">
         <v>47.421230000000001</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
+      <c r="E45">
+        <v>10.986319999999999</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
@@ -2702,7 +2694,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>20221113</v>
@@ -2713,8 +2705,8 @@
       <c r="D46">
         <v>47.421230000000001</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
+      <c r="E46">
+        <v>10.986319999999999</v>
       </c>
       <c r="F46" t="s">
         <v>1</v>
@@ -2740,7 +2732,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>20221113</v>
@@ -2751,8 +2743,8 @@
       <c r="D47">
         <v>47.421230000000001</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
+      <c r="E47">
+        <v>10.986319999999999</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
@@ -2778,7 +2770,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>20221113</v>
@@ -2789,8 +2781,8 @@
       <c r="D48">
         <v>47.421230000000001</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
+      <c r="E48">
+        <v>10.986319999999999</v>
       </c>
       <c r="F48" t="s">
         <v>1</v>
@@ -2816,7 +2808,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>20221113</v>
@@ -2827,8 +2819,8 @@
       <c r="D49">
         <v>47.421230000000001</v>
       </c>
-      <c r="E49" t="s">
-        <v>8</v>
+      <c r="E49">
+        <v>10.986319999999999</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
@@ -2854,7 +2846,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>20221113</v>
@@ -2865,8 +2857,8 @@
       <c r="D50">
         <v>47.421230000000001</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
+      <c r="E50">
+        <v>10.986319999999999</v>
       </c>
       <c r="F50" t="s">
         <v>1</v>
@@ -2892,7 +2884,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>20221113</v>
@@ -2903,8 +2895,8 @@
       <c r="D51">
         <v>47.421230000000001</v>
       </c>
-      <c r="E51" t="s">
-        <v>8</v>
+      <c r="E51">
+        <v>10.986319999999999</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
@@ -2930,7 +2922,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>20221113</v>
@@ -2941,8 +2933,8 @@
       <c r="D52">
         <v>47.421230000000001</v>
       </c>
-      <c r="E52" t="s">
-        <v>8</v>
+      <c r="E52">
+        <v>10.986319999999999</v>
       </c>
       <c r="F52" t="s">
         <v>1</v>
@@ -2968,7 +2960,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>20221113</v>
@@ -2979,8 +2971,8 @@
       <c r="D53">
         <v>47.421230000000001</v>
       </c>
-      <c r="E53" t="s">
-        <v>8</v>
+      <c r="E53">
+        <v>10.986319999999999</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
@@ -3006,7 +2998,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>20221113</v>
@@ -3017,8 +3009,8 @@
       <c r="D54">
         <v>47.421230000000001</v>
       </c>
-      <c r="E54" t="s">
-        <v>8</v>
+      <c r="E54">
+        <v>10.986319999999999</v>
       </c>
       <c r="F54" t="s">
         <v>1</v>
@@ -3044,7 +3036,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <v>20221113</v>
@@ -3055,8 +3047,8 @@
       <c r="D55">
         <v>47.421230000000001</v>
       </c>
-      <c r="E55" t="s">
-        <v>8</v>
+      <c r="E55">
+        <v>10.986319999999999</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
@@ -3082,7 +3074,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>20221113</v>
@@ -3093,8 +3085,8 @@
       <c r="D56">
         <v>47.421230000000001</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
+      <c r="E56">
+        <v>10.986319999999999</v>
       </c>
       <c r="F56" t="s">
         <v>1</v>
@@ -3120,7 +3112,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>20221113</v>
@@ -3131,8 +3123,8 @@
       <c r="D57">
         <v>47.421230000000001</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
+      <c r="E57">
+        <v>10.986319999999999</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -3158,7 +3150,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B58">
         <v>20221113</v>
@@ -3169,8 +3161,8 @@
       <c r="D58">
         <v>47.421230000000001</v>
       </c>
-      <c r="E58" t="s">
-        <v>8</v>
+      <c r="E58">
+        <v>10.986319999999999</v>
       </c>
       <c r="F58" t="s">
         <v>1</v>
@@ -3196,7 +3188,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>20221113</v>
@@ -3207,8 +3199,8 @@
       <c r="D59">
         <v>47.421230000000001</v>
       </c>
-      <c r="E59" t="s">
-        <v>8</v>
+      <c r="E59">
+        <v>10.986319999999999</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
@@ -3234,7 +3226,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B60">
         <v>20221113</v>
@@ -3245,8 +3237,8 @@
       <c r="D60">
         <v>47.421230000000001</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
+      <c r="E60">
+        <v>10.986319999999999</v>
       </c>
       <c r="F60" t="s">
         <v>1</v>
@@ -3272,7 +3264,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>20221113</v>
@@ -3283,8 +3275,8 @@
       <c r="D61">
         <v>47.421230000000001</v>
       </c>
-      <c r="E61" t="s">
-        <v>8</v>
+      <c r="E61">
+        <v>10.986319999999999</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
@@ -3310,7 +3302,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>20221113</v>
@@ -3321,8 +3313,8 @@
       <c r="D62">
         <v>47.421230000000001</v>
       </c>
-      <c r="E62" t="s">
-        <v>8</v>
+      <c r="E62">
+        <v>10.986319999999999</v>
       </c>
       <c r="F62" t="s">
         <v>1</v>
@@ -3348,7 +3340,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B63">
         <v>20221113</v>
@@ -3359,8 +3351,8 @@
       <c r="D63">
         <v>47.421230000000001</v>
       </c>
-      <c r="E63" t="s">
-        <v>8</v>
+      <c r="E63">
+        <v>10.986319999999999</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
@@ -3386,7 +3378,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>20221113</v>
@@ -3397,8 +3389,8 @@
       <c r="D64">
         <v>47.421230000000001</v>
       </c>
-      <c r="E64" t="s">
-        <v>8</v>
+      <c r="E64">
+        <v>10.986319999999999</v>
       </c>
       <c r="F64" t="s">
         <v>1</v>
@@ -3424,7 +3416,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>20221113</v>
@@ -3435,8 +3427,8 @@
       <c r="D65">
         <v>47.421230000000001</v>
       </c>
-      <c r="E65" t="s">
-        <v>8</v>
+      <c r="E65">
+        <v>10.986319999999999</v>
       </c>
       <c r="F65" t="s">
         <v>1</v>
@@ -3462,7 +3454,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>20221113</v>
@@ -3473,8 +3465,8 @@
       <c r="D66">
         <v>47.421230000000001</v>
       </c>
-      <c r="E66" t="s">
-        <v>8</v>
+      <c r="E66">
+        <v>10.986319999999999</v>
       </c>
       <c r="F66" t="s">
         <v>1</v>
@@ -3500,7 +3492,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>20221113</v>
@@ -3511,8 +3503,8 @@
       <c r="D67">
         <v>47.421230000000001</v>
       </c>
-      <c r="E67" t="s">
-        <v>8</v>
+      <c r="E67">
+        <v>10.986319999999999</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -3538,7 +3530,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>20221113</v>
@@ -3549,8 +3541,8 @@
       <c r="D68">
         <v>47.421230000000001</v>
       </c>
-      <c r="E68" t="s">
-        <v>8</v>
+      <c r="E68">
+        <v>10.986319999999999</v>
       </c>
       <c r="F68" t="s">
         <v>1</v>
@@ -3576,7 +3568,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>20221113</v>
@@ -3587,8 +3579,8 @@
       <c r="D69">
         <v>47.421230000000001</v>
       </c>
-      <c r="E69" t="s">
-        <v>8</v>
+      <c r="E69">
+        <v>10.986319999999999</v>
       </c>
       <c r="F69" t="s">
         <v>1</v>
@@ -3614,7 +3606,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B70">
         <v>20221113</v>
@@ -3625,8 +3617,8 @@
       <c r="D70">
         <v>47.421230000000001</v>
       </c>
-      <c r="E70" t="s">
-        <v>8</v>
+      <c r="E70">
+        <v>10.986319999999999</v>
       </c>
       <c r="F70" t="s">
         <v>1</v>
@@ -3652,7 +3644,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>20221113</v>
@@ -3663,8 +3655,8 @@
       <c r="D71">
         <v>47.421230000000001</v>
       </c>
-      <c r="E71" t="s">
-        <v>8</v>
+      <c r="E71">
+        <v>10.986319999999999</v>
       </c>
       <c r="F71" t="s">
         <v>1</v>
@@ -3690,7 +3682,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>20221113</v>
@@ -3701,8 +3693,8 @@
       <c r="D72">
         <v>47.421230000000001</v>
       </c>
-      <c r="E72" t="s">
-        <v>8</v>
+      <c r="E72">
+        <v>10.986319999999999</v>
       </c>
       <c r="F72" t="s">
         <v>1</v>
@@ -3728,7 +3720,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>20221113</v>
@@ -3739,8 +3731,8 @@
       <c r="D73">
         <v>47.421230000000001</v>
       </c>
-      <c r="E73" t="s">
-        <v>8</v>
+      <c r="E73">
+        <v>10.986319999999999</v>
       </c>
       <c r="F73" t="s">
         <v>1</v>
@@ -3766,7 +3758,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B74">
         <v>20221113</v>
@@ -3777,8 +3769,8 @@
       <c r="D74">
         <v>47.421230000000001</v>
       </c>
-      <c r="E74" t="s">
-        <v>8</v>
+      <c r="E74">
+        <v>10.986319999999999</v>
       </c>
       <c r="F74" t="s">
         <v>1</v>
@@ -3804,7 +3796,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B75">
         <v>20221113</v>
@@ -3815,8 +3807,8 @@
       <c r="D75">
         <v>47.421230000000001</v>
       </c>
-      <c r="E75" t="s">
-        <v>8</v>
+      <c r="E75">
+        <v>10.986319999999999</v>
       </c>
       <c r="F75" t="s">
         <v>1</v>
@@ -3842,7 +3834,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B76">
         <v>20221113</v>
@@ -3853,8 +3845,8 @@
       <c r="D76">
         <v>47.421230000000001</v>
       </c>
-      <c r="E76" t="s">
-        <v>8</v>
+      <c r="E76">
+        <v>10.986319999999999</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -3880,7 +3872,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B77">
         <v>20221113</v>
@@ -3891,8 +3883,8 @@
       <c r="D77">
         <v>47.421230000000001</v>
       </c>
-      <c r="E77" t="s">
-        <v>8</v>
+      <c r="E77">
+        <v>10.986319999999999</v>
       </c>
       <c r="F77" t="s">
         <v>1</v>
@@ -3918,7 +3910,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B78">
         <v>20221113</v>
@@ -3929,8 +3921,8 @@
       <c r="D78">
         <v>47.421230000000001</v>
       </c>
-      <c r="E78" t="s">
-        <v>8</v>
+      <c r="E78">
+        <v>10.986319999999999</v>
       </c>
       <c r="F78" t="s">
         <v>1</v>
@@ -3956,7 +3948,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>20221113</v>
@@ -3967,8 +3959,8 @@
       <c r="D79">
         <v>47.421230000000001</v>
       </c>
-      <c r="E79" t="s">
-        <v>8</v>
+      <c r="E79">
+        <v>10.986319999999999</v>
       </c>
       <c r="F79" t="s">
         <v>1</v>
@@ -3994,7 +3986,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B80">
         <v>20221113</v>
@@ -4005,8 +3997,8 @@
       <c r="D80">
         <v>47.421230000000001</v>
       </c>
-      <c r="E80" t="s">
-        <v>8</v>
+      <c r="E80">
+        <v>10.986319999999999</v>
       </c>
       <c r="F80" t="s">
         <v>1</v>
@@ -4032,7 +4024,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B81">
         <v>20221113</v>
@@ -4043,8 +4035,8 @@
       <c r="D81">
         <v>47.421230000000001</v>
       </c>
-      <c r="E81" t="s">
-        <v>8</v>
+      <c r="E81">
+        <v>10.986319999999999</v>
       </c>
       <c r="F81" t="s">
         <v>1</v>
@@ -4070,7 +4062,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B82">
         <v>20221114</v>
@@ -4081,8 +4073,8 @@
       <c r="D82">
         <v>47.421230000000001</v>
       </c>
-      <c r="E82" t="s">
-        <v>8</v>
+      <c r="E82">
+        <v>10.986319999999999</v>
       </c>
       <c r="F82" t="s">
         <v>1</v>
@@ -4108,7 +4100,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <v>20221114</v>
@@ -4119,8 +4111,8 @@
       <c r="D83">
         <v>47.421230000000001</v>
       </c>
-      <c r="E83" t="s">
-        <v>8</v>
+      <c r="E83">
+        <v>10.986319999999999</v>
       </c>
       <c r="F83" t="s">
         <v>1</v>
@@ -4146,7 +4138,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B84">
         <v>20221114</v>
@@ -4157,8 +4149,8 @@
       <c r="D84">
         <v>47.421230000000001</v>
       </c>
-      <c r="E84" t="s">
-        <v>8</v>
+      <c r="E84">
+        <v>10.986319999999999</v>
       </c>
       <c r="F84" t="s">
         <v>1</v>
@@ -4184,7 +4176,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B85">
         <v>20221114</v>
@@ -4195,8 +4187,8 @@
       <c r="D85">
         <v>47.421230000000001</v>
       </c>
-      <c r="E85" t="s">
-        <v>8</v>
+      <c r="E85">
+        <v>10.986319999999999</v>
       </c>
       <c r="F85" t="s">
         <v>1</v>
@@ -4222,7 +4214,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B86">
         <v>20221114</v>
@@ -4233,8 +4225,8 @@
       <c r="D86">
         <v>47.421230000000001</v>
       </c>
-      <c r="E86" t="s">
-        <v>8</v>
+      <c r="E86">
+        <v>10.986319999999999</v>
       </c>
       <c r="F86" t="s">
         <v>1</v>
@@ -4260,7 +4252,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>20221115</v>
@@ -4271,8 +4263,8 @@
       <c r="D87">
         <v>47.421230000000001</v>
       </c>
-      <c r="E87" t="s">
-        <v>8</v>
+      <c r="E87">
+        <v>10.986319999999999</v>
       </c>
       <c r="F87" t="s">
         <v>1</v>
@@ -4298,7 +4290,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B88">
         <v>20221115</v>
@@ -4309,8 +4301,8 @@
       <c r="D88">
         <v>47.421230000000001</v>
       </c>
-      <c r="E88" t="s">
-        <v>8</v>
+      <c r="E88">
+        <v>10.986319999999999</v>
       </c>
       <c r="F88" t="s">
         <v>1</v>
@@ -4336,7 +4328,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>20221115</v>
@@ -4347,8 +4339,8 @@
       <c r="D89">
         <v>47.421230000000001</v>
       </c>
-      <c r="E89" t="s">
-        <v>8</v>
+      <c r="E89">
+        <v>10.986319999999999</v>
       </c>
       <c r="F89" t="s">
         <v>1</v>
@@ -4374,7 +4366,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>20221115</v>
@@ -4385,8 +4377,8 @@
       <c r="D90">
         <v>47.421230000000001</v>
       </c>
-      <c r="E90" t="s">
-        <v>8</v>
+      <c r="E90">
+        <v>10.986319999999999</v>
       </c>
       <c r="F90" t="s">
         <v>1</v>
@@ -4412,7 +4404,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B91">
         <v>20221115</v>
@@ -4423,8 +4415,8 @@
       <c r="D91">
         <v>47.421230000000001</v>
       </c>
-      <c r="E91" t="s">
-        <v>8</v>
+      <c r="E91">
+        <v>10.986319999999999</v>
       </c>
       <c r="F91" t="s">
         <v>1</v>
@@ -4450,7 +4442,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B92">
         <v>20221114</v>
@@ -4461,8 +4453,8 @@
       <c r="D92">
         <v>47.421230000000001</v>
       </c>
-      <c r="E92" t="s">
-        <v>8</v>
+      <c r="E92">
+        <v>10.986319999999999</v>
       </c>
       <c r="F92" t="s">
         <v>1</v>
@@ -4488,7 +4480,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B93">
         <v>20221114</v>
@@ -4499,8 +4491,8 @@
       <c r="D93">
         <v>47.421230000000001</v>
       </c>
-      <c r="E93" t="s">
-        <v>8</v>
+      <c r="E93">
+        <v>10.986319999999999</v>
       </c>
       <c r="F93" t="s">
         <v>1</v>
@@ -4526,7 +4518,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B94">
         <v>20221114</v>
@@ -4537,8 +4529,8 @@
       <c r="D94">
         <v>47.421230000000001</v>
       </c>
-      <c r="E94" t="s">
-        <v>8</v>
+      <c r="E94">
+        <v>10.986319999999999</v>
       </c>
       <c r="F94" t="s">
         <v>1</v>
@@ -4564,7 +4556,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B95">
         <v>20221114</v>
@@ -4575,8 +4567,8 @@
       <c r="D95">
         <v>47.421230000000001</v>
       </c>
-      <c r="E95" t="s">
-        <v>8</v>
+      <c r="E95">
+        <v>10.986319999999999</v>
       </c>
       <c r="F95" t="s">
         <v>1</v>
@@ -4602,7 +4594,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B96">
         <v>20221114</v>
@@ -4613,8 +4605,8 @@
       <c r="D96">
         <v>47.421230000000001</v>
       </c>
-      <c r="E96" t="s">
-        <v>8</v>
+      <c r="E96">
+        <v>10.986319999999999</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -4640,7 +4632,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B97">
         <v>20221115</v>
@@ -4651,8 +4643,8 @@
       <c r="D97">
         <v>47.421230000000001</v>
       </c>
-      <c r="E97" t="s">
-        <v>8</v>
+      <c r="E97">
+        <v>10.986319999999999</v>
       </c>
       <c r="F97" t="s">
         <v>1</v>
@@ -4678,7 +4670,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B98">
         <v>20221115</v>
@@ -4689,8 +4681,8 @@
       <c r="D98">
         <v>47.421230000000001</v>
       </c>
-      <c r="E98" t="s">
-        <v>8</v>
+      <c r="E98">
+        <v>10.986319999999999</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -4716,7 +4708,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B99">
         <v>20221115</v>
@@ -4727,8 +4719,8 @@
       <c r="D99">
         <v>47.421230000000001</v>
       </c>
-      <c r="E99" t="s">
-        <v>8</v>
+      <c r="E99">
+        <v>10.986319999999999</v>
       </c>
       <c r="F99" t="s">
         <v>1</v>
@@ -4754,7 +4746,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B100">
         <v>20221115</v>
@@ -4765,8 +4757,8 @@
       <c r="D100">
         <v>47.421230000000001</v>
       </c>
-      <c r="E100" t="s">
-        <v>8</v>
+      <c r="E100">
+        <v>10.986319999999999</v>
       </c>
       <c r="F100" t="s">
         <v>1</v>
@@ -4792,7 +4784,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>20221115</v>
@@ -4803,8 +4795,8 @@
       <c r="D101">
         <v>47.421230000000001</v>
       </c>
-      <c r="E101" t="s">
-        <v>8</v>
+      <c r="E101">
+        <v>10.986319999999999</v>
       </c>
       <c r="F101" t="s">
         <v>1</v>
@@ -4830,7 +4822,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B102">
         <v>20221114</v>
@@ -4841,8 +4833,8 @@
       <c r="D102">
         <v>47.421230000000001</v>
       </c>
-      <c r="E102" t="s">
-        <v>8</v>
+      <c r="E102">
+        <v>10.986319999999999</v>
       </c>
       <c r="F102" t="s">
         <v>1</v>
@@ -4868,7 +4860,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B103">
         <v>20221114</v>
@@ -4879,8 +4871,8 @@
       <c r="D103">
         <v>47.421230000000001</v>
       </c>
-      <c r="E103" t="s">
-        <v>8</v>
+      <c r="E103">
+        <v>10.986319999999999</v>
       </c>
       <c r="F103" t="s">
         <v>1</v>
@@ -4906,7 +4898,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B104">
         <v>20221114</v>
@@ -4917,8 +4909,8 @@
       <c r="D104">
         <v>47.421230000000001</v>
       </c>
-      <c r="E104" t="s">
-        <v>8</v>
+      <c r="E104">
+        <v>10.986319999999999</v>
       </c>
       <c r="F104" t="s">
         <v>1</v>
@@ -4944,7 +4936,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B105">
         <v>20221114</v>
@@ -4955,8 +4947,8 @@
       <c r="D105">
         <v>47.421230000000001</v>
       </c>
-      <c r="E105" t="s">
-        <v>8</v>
+      <c r="E105">
+        <v>10.986319999999999</v>
       </c>
       <c r="F105" t="s">
         <v>1</v>
@@ -4982,7 +4974,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B106">
         <v>20221114</v>
@@ -4993,8 +4985,8 @@
       <c r="D106">
         <v>47.421230000000001</v>
       </c>
-      <c r="E106" t="s">
-        <v>8</v>
+      <c r="E106">
+        <v>10.986319999999999</v>
       </c>
       <c r="F106" t="s">
         <v>1</v>
@@ -5020,7 +5012,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B107">
         <v>20221115</v>
@@ -5031,8 +5023,8 @@
       <c r="D107">
         <v>47.421230000000001</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
+      <c r="E107">
+        <v>10.986319999999999</v>
       </c>
       <c r="F107" t="s">
         <v>1</v>
@@ -5058,7 +5050,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B108">
         <v>20221115</v>
@@ -5069,8 +5061,8 @@
       <c r="D108">
         <v>47.421230000000001</v>
       </c>
-      <c r="E108" t="s">
-        <v>8</v>
+      <c r="E108">
+        <v>10.986319999999999</v>
       </c>
       <c r="F108" t="s">
         <v>1</v>
@@ -5096,7 +5088,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B109">
         <v>20221115</v>
@@ -5107,8 +5099,8 @@
       <c r="D109">
         <v>47.421230000000001</v>
       </c>
-      <c r="E109" t="s">
-        <v>8</v>
+      <c r="E109">
+        <v>10.986319999999999</v>
       </c>
       <c r="F109" t="s">
         <v>1</v>
@@ -5134,7 +5126,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B110">
         <v>20221115</v>
@@ -5145,8 +5137,8 @@
       <c r="D110">
         <v>47.421230000000001</v>
       </c>
-      <c r="E110" t="s">
-        <v>8</v>
+      <c r="E110">
+        <v>10.986319999999999</v>
       </c>
       <c r="F110" t="s">
         <v>1</v>
@@ -5172,7 +5164,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B111">
         <v>20221115</v>
@@ -5183,8 +5175,8 @@
       <c r="D111">
         <v>47.421230000000001</v>
       </c>
-      <c r="E111" t="s">
-        <v>8</v>
+      <c r="E111">
+        <v>10.986319999999999</v>
       </c>
       <c r="F111" t="s">
         <v>1</v>
@@ -5210,7 +5202,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B112">
         <v>20221114</v>
@@ -5221,8 +5213,8 @@
       <c r="D112">
         <v>47.421230000000001</v>
       </c>
-      <c r="E112" t="s">
-        <v>8</v>
+      <c r="E112">
+        <v>10.986319999999999</v>
       </c>
       <c r="F112" t="s">
         <v>1</v>
@@ -5248,7 +5240,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B113">
         <v>20221114</v>
@@ -5259,8 +5251,8 @@
       <c r="D113">
         <v>47.421230000000001</v>
       </c>
-      <c r="E113" t="s">
-        <v>8</v>
+      <c r="E113">
+        <v>10.986319999999999</v>
       </c>
       <c r="F113" t="s">
         <v>1</v>
@@ -5286,7 +5278,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B114">
         <v>20221114</v>
@@ -5297,8 +5289,8 @@
       <c r="D114">
         <v>47.421230000000001</v>
       </c>
-      <c r="E114" t="s">
-        <v>8</v>
+      <c r="E114">
+        <v>10.986319999999999</v>
       </c>
       <c r="F114" t="s">
         <v>1</v>
@@ -5324,7 +5316,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B115">
         <v>20221114</v>
@@ -5335,8 +5327,8 @@
       <c r="D115">
         <v>47.421230000000001</v>
       </c>
-      <c r="E115" t="s">
-        <v>8</v>
+      <c r="E115">
+        <v>10.986319999999999</v>
       </c>
       <c r="F115" t="s">
         <v>1</v>
@@ -5362,7 +5354,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B116">
         <v>20221114</v>
@@ -5373,8 +5365,8 @@
       <c r="D116">
         <v>47.421230000000001</v>
       </c>
-      <c r="E116" t="s">
-        <v>8</v>
+      <c r="E116">
+        <v>10.986319999999999</v>
       </c>
       <c r="F116" t="s">
         <v>1</v>
@@ -5400,7 +5392,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B117">
         <v>20221115</v>
@@ -5411,8 +5403,8 @@
       <c r="D117">
         <v>47.421230000000001</v>
       </c>
-      <c r="E117" t="s">
-        <v>8</v>
+      <c r="E117">
+        <v>10.986319999999999</v>
       </c>
       <c r="F117" t="s">
         <v>1</v>
@@ -5438,7 +5430,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B118">
         <v>20221115</v>
@@ -5449,8 +5441,8 @@
       <c r="D118">
         <v>47.421230000000001</v>
       </c>
-      <c r="E118" t="s">
-        <v>8</v>
+      <c r="E118">
+        <v>10.986319999999999</v>
       </c>
       <c r="F118" t="s">
         <v>1</v>
@@ -5476,7 +5468,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B119">
         <v>20221115</v>
@@ -5487,8 +5479,8 @@
       <c r="D119">
         <v>47.421230000000001</v>
       </c>
-      <c r="E119" t="s">
-        <v>8</v>
+      <c r="E119">
+        <v>10.986319999999999</v>
       </c>
       <c r="F119" t="s">
         <v>1</v>
@@ -5514,7 +5506,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B120">
         <v>20221115</v>
@@ -5525,8 +5517,8 @@
       <c r="D120">
         <v>47.421230000000001</v>
       </c>
-      <c r="E120" t="s">
-        <v>8</v>
+      <c r="E120">
+        <v>10.986319999999999</v>
       </c>
       <c r="F120" t="s">
         <v>1</v>
@@ -5552,7 +5544,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B121">
         <v>20221115</v>
@@ -5563,8 +5555,8 @@
       <c r="D121">
         <v>47.421230000000001</v>
       </c>
-      <c r="E121" t="s">
-        <v>8</v>
+      <c r="E121">
+        <v>10.986319999999999</v>
       </c>
       <c r="F121" t="s">
         <v>1</v>
@@ -5590,7 +5582,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B122">
         <v>20221115</v>
@@ -5601,8 +5593,8 @@
       <c r="D122">
         <v>47.421230000000001</v>
       </c>
-      <c r="E122" t="s">
-        <v>8</v>
+      <c r="E122">
+        <v>10.986319999999999</v>
       </c>
       <c r="F122" t="s">
         <v>1</v>
@@ -5628,7 +5620,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B123">
         <v>20221115</v>
@@ -5639,8 +5631,8 @@
       <c r="D123">
         <v>47.421230000000001</v>
       </c>
-      <c r="E123" t="s">
-        <v>8</v>
+      <c r="E123">
+        <v>10.986319999999999</v>
       </c>
       <c r="F123" t="s">
         <v>1</v>
@@ -5666,7 +5658,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B124">
         <v>20221115</v>
@@ -5677,8 +5669,8 @@
       <c r="D124">
         <v>47.421230000000001</v>
       </c>
-      <c r="E124" t="s">
-        <v>8</v>
+      <c r="E124">
+        <v>10.986319999999999</v>
       </c>
       <c r="F124" t="s">
         <v>1</v>
@@ -5704,7 +5696,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B125">
         <v>20221115</v>
@@ -5715,8 +5707,8 @@
       <c r="D125">
         <v>47.421230000000001</v>
       </c>
-      <c r="E125" t="s">
-        <v>8</v>
+      <c r="E125">
+        <v>10.986319999999999</v>
       </c>
       <c r="F125" t="s">
         <v>1</v>
@@ -5742,7 +5734,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B126">
         <v>20221115</v>
@@ -5753,8 +5745,8 @@
       <c r="D126">
         <v>47.421230000000001</v>
       </c>
-      <c r="E126" t="s">
-        <v>8</v>
+      <c r="E126">
+        <v>10.986319999999999</v>
       </c>
       <c r="F126" t="s">
         <v>1</v>
@@ -5780,7 +5772,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B127">
         <v>20221115</v>
@@ -5791,8 +5783,8 @@
       <c r="D127">
         <v>47.421230000000001</v>
       </c>
-      <c r="E127" t="s">
-        <v>8</v>
+      <c r="E127">
+        <v>10.986319999999999</v>
       </c>
       <c r="F127" t="s">
         <v>1</v>
@@ -5818,7 +5810,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B128">
         <v>20221115</v>
@@ -5829,8 +5821,8 @@
       <c r="D128">
         <v>47.421230000000001</v>
       </c>
-      <c r="E128" t="s">
-        <v>8</v>
+      <c r="E128">
+        <v>10.986319999999999</v>
       </c>
       <c r="F128" t="s">
         <v>1</v>
@@ -5856,7 +5848,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B129">
         <v>20221115</v>
@@ -5867,8 +5859,8 @@
       <c r="D129">
         <v>47.421230000000001</v>
       </c>
-      <c r="E129" t="s">
-        <v>8</v>
+      <c r="E129">
+        <v>10.986319999999999</v>
       </c>
       <c r="F129" t="s">
         <v>1</v>
@@ -5894,7 +5886,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B130">
         <v>20221115</v>
@@ -5905,8 +5897,8 @@
       <c r="D130">
         <v>47.421230000000001</v>
       </c>
-      <c r="E130" t="s">
-        <v>8</v>
+      <c r="E130">
+        <v>10.986319999999999</v>
       </c>
       <c r="F130" t="s">
         <v>1</v>
@@ -5932,7 +5924,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>20221115</v>
@@ -5943,8 +5935,8 @@
       <c r="D131">
         <v>47.421230000000001</v>
       </c>
-      <c r="E131" t="s">
-        <v>8</v>
+      <c r="E131">
+        <v>10.986319999999999</v>
       </c>
       <c r="F131" t="s">
         <v>1</v>
@@ -5970,7 +5962,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B132">
         <v>20221115</v>
@@ -5981,8 +5973,8 @@
       <c r="D132">
         <v>47.421230000000001</v>
       </c>
-      <c r="E132" t="s">
-        <v>8</v>
+      <c r="E132">
+        <v>10.986319999999999</v>
       </c>
       <c r="F132" t="s">
         <v>1</v>
@@ -6008,7 +6000,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B133">
         <v>20221115</v>
@@ -6019,8 +6011,8 @@
       <c r="D133">
         <v>47.421230000000001</v>
       </c>
-      <c r="E133" t="s">
-        <v>8</v>
+      <c r="E133">
+        <v>10.986319999999999</v>
       </c>
       <c r="F133" t="s">
         <v>1</v>
@@ -6046,7 +6038,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B134">
         <v>20221115</v>
@@ -6057,8 +6049,8 @@
       <c r="D134">
         <v>47.421230000000001</v>
       </c>
-      <c r="E134" t="s">
-        <v>8</v>
+      <c r="E134">
+        <v>10.986319999999999</v>
       </c>
       <c r="F134" t="s">
         <v>1</v>
@@ -6084,7 +6076,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B135">
         <v>20221115</v>
@@ -6095,8 +6087,8 @@
       <c r="D135">
         <v>47.421230000000001</v>
       </c>
-      <c r="E135" t="s">
-        <v>8</v>
+      <c r="E135">
+        <v>10.986319999999999</v>
       </c>
       <c r="F135" t="s">
         <v>1</v>
@@ -6122,7 +6114,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B136">
         <v>20221115</v>
@@ -6133,8 +6125,8 @@
       <c r="D136">
         <v>47.421230000000001</v>
       </c>
-      <c r="E136" t="s">
-        <v>8</v>
+      <c r="E136">
+        <v>10.986319999999999</v>
       </c>
       <c r="F136" t="s">
         <v>1</v>
@@ -6160,7 +6152,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B137">
         <v>20221115</v>
@@ -6171,8 +6163,8 @@
       <c r="D137">
         <v>47.421230000000001</v>
       </c>
-      <c r="E137" t="s">
-        <v>8</v>
+      <c r="E137">
+        <v>10.986319999999999</v>
       </c>
       <c r="F137" t="s">
         <v>1</v>
@@ -6198,7 +6190,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B138">
         <v>20221115</v>
@@ -6209,8 +6201,8 @@
       <c r="D138">
         <v>47.421230000000001</v>
       </c>
-      <c r="E138" t="s">
-        <v>8</v>
+      <c r="E138">
+        <v>10.986319999999999</v>
       </c>
       <c r="F138" t="s">
         <v>1</v>
@@ -6236,7 +6228,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B139">
         <v>20221115</v>
@@ -6247,8 +6239,8 @@
       <c r="D139">
         <v>47.421230000000001</v>
       </c>
-      <c r="E139" t="s">
-        <v>8</v>
+      <c r="E139">
+        <v>10.986319999999999</v>
       </c>
       <c r="F139" t="s">
         <v>1</v>
@@ -6274,7 +6266,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B140">
         <v>20221115</v>
@@ -6285,8 +6277,8 @@
       <c r="D140">
         <v>47.421230000000001</v>
       </c>
-      <c r="E140" t="s">
-        <v>8</v>
+      <c r="E140">
+        <v>10.986319999999999</v>
       </c>
       <c r="F140" t="s">
         <v>1</v>
@@ -6312,7 +6304,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B141">
         <v>20221115</v>
@@ -6323,8 +6315,8 @@
       <c r="D141">
         <v>47.421230000000001</v>
       </c>
-      <c r="E141" t="s">
-        <v>8</v>
+      <c r="E141">
+        <v>10.986319999999999</v>
       </c>
       <c r="F141" t="s">
         <v>1</v>
@@ -6350,7 +6342,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B142">
         <v>20221115</v>
@@ -6361,8 +6353,8 @@
       <c r="D142">
         <v>47.421230000000001</v>
       </c>
-      <c r="E142" t="s">
-        <v>8</v>
+      <c r="E142">
+        <v>10.986319999999999</v>
       </c>
       <c r="F142" t="s">
         <v>1</v>
@@ -6388,7 +6380,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B143">
         <v>20221115</v>
@@ -6399,8 +6391,8 @@
       <c r="D143">
         <v>47.421230000000001</v>
       </c>
-      <c r="E143" t="s">
-        <v>8</v>
+      <c r="E143">
+        <v>10.986319999999999</v>
       </c>
       <c r="F143" t="s">
         <v>1</v>
@@ -6426,7 +6418,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B144">
         <v>20221115</v>
@@ -6437,8 +6429,8 @@
       <c r="D144">
         <v>47.421230000000001</v>
       </c>
-      <c r="E144" t="s">
-        <v>8</v>
+      <c r="E144">
+        <v>10.986319999999999</v>
       </c>
       <c r="F144" t="s">
         <v>1</v>
@@ -6464,7 +6456,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B145">
         <v>20221115</v>
@@ -6475,8 +6467,8 @@
       <c r="D145">
         <v>47.421230000000001</v>
       </c>
-      <c r="E145" t="s">
-        <v>8</v>
+      <c r="E145">
+        <v>10.986319999999999</v>
       </c>
       <c r="F145" t="s">
         <v>1</v>
@@ -6502,7 +6494,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B146">
         <v>20221115</v>
@@ -6513,8 +6505,8 @@
       <c r="D146">
         <v>47.421230000000001</v>
       </c>
-      <c r="E146" t="s">
-        <v>8</v>
+      <c r="E146">
+        <v>10.986319999999999</v>
       </c>
       <c r="F146" t="s">
         <v>1</v>
@@ -6540,7 +6532,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B147">
         <v>20221115</v>
@@ -6551,8 +6543,8 @@
       <c r="D147">
         <v>47.421230000000001</v>
       </c>
-      <c r="E147" t="s">
-        <v>8</v>
+      <c r="E147">
+        <v>10.986319999999999</v>
       </c>
       <c r="F147" t="s">
         <v>1</v>
@@ -6578,7 +6570,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B148">
         <v>20221115</v>
@@ -6589,8 +6581,8 @@
       <c r="D148">
         <v>47.421230000000001</v>
       </c>
-      <c r="E148" t="s">
-        <v>8</v>
+      <c r="E148">
+        <v>10.986319999999999</v>
       </c>
       <c r="F148" t="s">
         <v>1</v>
@@ -6616,7 +6608,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B149">
         <v>20221115</v>
@@ -6627,8 +6619,8 @@
       <c r="D149">
         <v>47.421230000000001</v>
       </c>
-      <c r="E149" t="s">
-        <v>8</v>
+      <c r="E149">
+        <v>10.986319999999999</v>
       </c>
       <c r="F149" t="s">
         <v>1</v>
@@ -6654,7 +6646,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>20221115</v>
@@ -6665,8 +6657,8 @@
       <c r="D150">
         <v>47.421230000000001</v>
       </c>
-      <c r="E150" t="s">
-        <v>8</v>
+      <c r="E150">
+        <v>10.986319999999999</v>
       </c>
       <c r="F150" t="s">
         <v>1</v>
@@ -6692,7 +6684,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <v>20221115</v>
@@ -6703,8 +6695,8 @@
       <c r="D151">
         <v>47.421230000000001</v>
       </c>
-      <c r="E151" t="s">
-        <v>8</v>
+      <c r="E151">
+        <v>10.986319999999999</v>
       </c>
       <c r="F151" t="s">
         <v>1</v>
@@ -6730,7 +6722,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B152">
         <v>20221115</v>
@@ -6741,8 +6733,8 @@
       <c r="D152">
         <v>47.421230000000001</v>
       </c>
-      <c r="E152" t="s">
-        <v>8</v>
+      <c r="E152">
+        <v>10.986319999999999</v>
       </c>
       <c r="F152" t="s">
         <v>1</v>
@@ -6768,7 +6760,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B153">
         <v>20221115</v>
@@ -6779,8 +6771,8 @@
       <c r="D153">
         <v>47.421230000000001</v>
       </c>
-      <c r="E153" t="s">
-        <v>8</v>
+      <c r="E153">
+        <v>10.986319999999999</v>
       </c>
       <c r="F153" t="s">
         <v>1</v>
@@ -6806,7 +6798,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B154">
         <v>20221115</v>
@@ -6817,8 +6809,8 @@
       <c r="D154">
         <v>47.421230000000001</v>
       </c>
-      <c r="E154" t="s">
-        <v>8</v>
+      <c r="E154">
+        <v>10.986319999999999</v>
       </c>
       <c r="F154" t="s">
         <v>1</v>
@@ -6844,7 +6836,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B155">
         <v>20221115</v>
@@ -6855,8 +6847,8 @@
       <c r="D155">
         <v>47.421230000000001</v>
       </c>
-      <c r="E155" t="s">
-        <v>8</v>
+      <c r="E155">
+        <v>10.986319999999999</v>
       </c>
       <c r="F155" t="s">
         <v>1</v>
@@ -6882,7 +6874,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B156">
         <v>20221115</v>
@@ -6893,8 +6885,8 @@
       <c r="D156">
         <v>47.421230000000001</v>
       </c>
-      <c r="E156" t="s">
-        <v>8</v>
+      <c r="E156">
+        <v>10.986319999999999</v>
       </c>
       <c r="F156" t="s">
         <v>1</v>
@@ -6920,7 +6912,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B157">
         <v>20221115</v>
@@ -6931,8 +6923,8 @@
       <c r="D157">
         <v>47.421230000000001</v>
       </c>
-      <c r="E157" t="s">
-        <v>8</v>
+      <c r="E157">
+        <v>10.986319999999999</v>
       </c>
       <c r="F157" t="s">
         <v>1</v>
@@ -6958,7 +6950,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B158">
         <v>20221115</v>
@@ -6969,8 +6961,8 @@
       <c r="D158">
         <v>47.421230000000001</v>
       </c>
-      <c r="E158" t="s">
-        <v>8</v>
+      <c r="E158">
+        <v>10.986319999999999</v>
       </c>
       <c r="F158" t="s">
         <v>1</v>
@@ -6996,7 +6988,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B159">
         <v>20221115</v>
@@ -7007,8 +6999,8 @@
       <c r="D159">
         <v>47.421230000000001</v>
       </c>
-      <c r="E159" t="s">
-        <v>8</v>
+      <c r="E159">
+        <v>10.986319999999999</v>
       </c>
       <c r="F159" t="s">
         <v>1</v>
@@ -7034,7 +7026,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B160">
         <v>20221115</v>
@@ -7045,8 +7037,8 @@
       <c r="D160">
         <v>47.421230000000001</v>
       </c>
-      <c r="E160" t="s">
-        <v>8</v>
+      <c r="E160">
+        <v>10.986319999999999</v>
       </c>
       <c r="F160" t="s">
         <v>1</v>
@@ -7072,7 +7064,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B161">
         <v>20221115</v>
@@ -7083,8 +7075,8 @@
       <c r="D161">
         <v>47.421230000000001</v>
       </c>
-      <c r="E161" t="s">
-        <v>8</v>
+      <c r="E161">
+        <v>10.986319999999999</v>
       </c>
       <c r="F161" t="s">
         <v>1</v>
@@ -7110,7 +7102,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B162">
         <v>20221116</v>
@@ -7118,11 +7110,11 @@
       <c r="C162" t="s">
         <v>0</v>
       </c>
-      <c r="D162">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
+      <c r="D162" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E162">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -7148,7 +7140,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B163">
         <v>20221116</v>
@@ -7156,11 +7148,11 @@
       <c r="C163" t="s">
         <v>0</v>
       </c>
-      <c r="D163">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E163" t="s">
-        <v>8</v>
+      <c r="D163" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E163">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -7186,7 +7178,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B164">
         <v>20221116</v>
@@ -7194,11 +7186,11 @@
       <c r="C164" t="s">
         <v>0</v>
       </c>
-      <c r="D164">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
+      <c r="D164" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E164">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -7224,7 +7216,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B165">
         <v>20221116</v>
@@ -7232,11 +7224,11 @@
       <c r="C165" t="s">
         <v>0</v>
       </c>
-      <c r="D165">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
+      <c r="D165" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E165">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -7262,7 +7254,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B166">
         <v>20221116</v>
@@ -7270,11 +7262,11 @@
       <c r="C166" t="s">
         <v>0</v>
       </c>
-      <c r="D166">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
+      <c r="D166" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E166">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -7300,7 +7292,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B167">
         <v>20221116</v>
@@ -7308,11 +7300,11 @@
       <c r="C167" t="s">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E167" t="s">
-        <v>8</v>
+      <c r="D167" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E167">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -7338,7 +7330,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B168">
         <v>20221116</v>
@@ -7346,11 +7338,11 @@
       <c r="C168" t="s">
         <v>0</v>
       </c>
-      <c r="D168">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E168" t="s">
-        <v>8</v>
+      <c r="D168" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E168">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -7376,7 +7368,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B169">
         <v>20221116</v>
@@ -7384,11 +7376,11 @@
       <c r="C169" t="s">
         <v>0</v>
       </c>
-      <c r="D169">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
+      <c r="D169" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E169">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -7414,7 +7406,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B170">
         <v>20221116</v>
@@ -7422,11 +7414,11 @@
       <c r="C170" t="s">
         <v>0</v>
       </c>
-      <c r="D170">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
+      <c r="D170" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E170">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -7452,7 +7444,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>20221116</v>
@@ -7460,11 +7452,11 @@
       <c r="C171" t="s">
         <v>0</v>
       </c>
-      <c r="D171">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E171" t="s">
-        <v>8</v>
+      <c r="D171" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E171">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -7490,7 +7482,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B172">
         <v>20221116</v>
@@ -7498,11 +7490,11 @@
       <c r="C172" t="s">
         <v>0</v>
       </c>
-      <c r="D172">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E172" t="s">
-        <v>8</v>
+      <c r="D172" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E172">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -7528,7 +7520,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B173">
         <v>20221116</v>
@@ -7536,11 +7528,11 @@
       <c r="C173" t="s">
         <v>0</v>
       </c>
-      <c r="D173">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8</v>
+      <c r="D173" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E173">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -7566,7 +7558,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B174">
         <v>20221116</v>
@@ -7574,11 +7566,11 @@
       <c r="C174" t="s">
         <v>0</v>
       </c>
-      <c r="D174">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E174" t="s">
-        <v>8</v>
+      <c r="D174" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E174">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -7604,7 +7596,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B175">
         <v>20221116</v>
@@ -7612,11 +7604,11 @@
       <c r="C175" t="s">
         <v>0</v>
       </c>
-      <c r="D175">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E175" t="s">
-        <v>8</v>
+      <c r="D175" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E175">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -7642,7 +7634,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B176">
         <v>20221116</v>
@@ -7650,11 +7642,11 @@
       <c r="C176" t="s">
         <v>0</v>
       </c>
-      <c r="D176">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
+      <c r="D176" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E176">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -7680,7 +7672,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B177">
         <v>20221116</v>
@@ -7688,11 +7680,11 @@
       <c r="C177" t="s">
         <v>0</v>
       </c>
-      <c r="D177">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
+      <c r="D177" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E177">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -7718,7 +7710,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B178">
         <v>20221116</v>
@@ -7726,11 +7718,11 @@
       <c r="C178" t="s">
         <v>0</v>
       </c>
-      <c r="D178">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E178" t="s">
-        <v>8</v>
+      <c r="D178" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E178">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -7756,7 +7748,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B179">
         <v>20221116</v>
@@ -7764,11 +7756,11 @@
       <c r="C179" t="s">
         <v>0</v>
       </c>
-      <c r="D179">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E179" t="s">
-        <v>8</v>
+      <c r="D179" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E179">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -7794,7 +7786,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B180">
         <v>20221116</v>
@@ -7802,11 +7794,11 @@
       <c r="C180" t="s">
         <v>0</v>
       </c>
-      <c r="D180">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
+      <c r="D180" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E180">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -7832,7 +7824,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B181">
         <v>20221116</v>
@@ -7840,11 +7832,11 @@
       <c r="C181" t="s">
         <v>0</v>
       </c>
-      <c r="D181">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
+      <c r="D181" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E181">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -7870,7 +7862,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B182">
         <v>20221116</v>
@@ -7878,11 +7870,11 @@
       <c r="C182" t="s">
         <v>0</v>
       </c>
-      <c r="D182">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
+      <c r="D182" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E182">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -7908,7 +7900,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B183">
         <v>20221116</v>
@@ -7916,11 +7908,11 @@
       <c r="C183" t="s">
         <v>0</v>
       </c>
-      <c r="D183">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E183" t="s">
-        <v>8</v>
+      <c r="D183" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E183">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -7946,7 +7938,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B184">
         <v>20221116</v>
@@ -7954,11 +7946,11 @@
       <c r="C184" t="s">
         <v>0</v>
       </c>
-      <c r="D184">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E184" t="s">
-        <v>8</v>
+      <c r="D184" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E184">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -7984,7 +7976,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B185">
         <v>20221116</v>
@@ -7992,11 +7984,11 @@
       <c r="C185" t="s">
         <v>0</v>
       </c>
-      <c r="D185">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
+      <c r="D185" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E185">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -8022,7 +8014,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B186">
         <v>20221116</v>
@@ -8030,11 +8022,11 @@
       <c r="C186" t="s">
         <v>0</v>
       </c>
-      <c r="D186">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E186" t="s">
-        <v>8</v>
+      <c r="D186" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E186">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -8060,7 +8052,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B187">
         <v>20221116</v>
@@ -8068,11 +8060,11 @@
       <c r="C187" t="s">
         <v>0</v>
       </c>
-      <c r="D187">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
+      <c r="D187" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E187">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -8098,7 +8090,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B188">
         <v>20221116</v>
@@ -8106,11 +8098,11 @@
       <c r="C188" t="s">
         <v>0</v>
       </c>
-      <c r="D188">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
+      <c r="D188" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E188">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -8136,7 +8128,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B189">
         <v>20221116</v>
@@ -8144,11 +8136,11 @@
       <c r="C189" t="s">
         <v>0</v>
       </c>
-      <c r="D189">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8</v>
+      <c r="D189" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E189">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -8174,7 +8166,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B190">
         <v>20221116</v>
@@ -8182,11 +8174,11 @@
       <c r="C190" t="s">
         <v>0</v>
       </c>
-      <c r="D190">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
+      <c r="D190" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E190">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -8212,7 +8204,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B191">
         <v>20221116</v>
@@ -8220,11 +8212,11 @@
       <c r="C191" t="s">
         <v>0</v>
       </c>
-      <c r="D191">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E191" t="s">
-        <v>8</v>
+      <c r="D191" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E191">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -8250,7 +8242,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B192">
         <v>20221116</v>
@@ -8258,11 +8250,11 @@
       <c r="C192" t="s">
         <v>0</v>
       </c>
-      <c r="D192">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
+      <c r="D192" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E192">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F192" t="s">
         <v>6</v>
@@ -8288,7 +8280,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B193">
         <v>20221116</v>
@@ -8296,11 +8288,11 @@
       <c r="C193" t="s">
         <v>0</v>
       </c>
-      <c r="D193">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
+      <c r="D193" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E193">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -8326,7 +8318,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B194">
         <v>20221116</v>
@@ -8334,11 +8326,11 @@
       <c r="C194" t="s">
         <v>0</v>
       </c>
-      <c r="D194">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
+      <c r="D194" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E194">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -8364,7 +8356,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B195">
         <v>20221116</v>
@@ -8372,11 +8364,11 @@
       <c r="C195" t="s">
         <v>0</v>
       </c>
-      <c r="D195">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
+      <c r="D195" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E195">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -8402,7 +8394,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B196">
         <v>20221116</v>
@@ -8410,11 +8402,11 @@
       <c r="C196" t="s">
         <v>0</v>
       </c>
-      <c r="D196">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E196" t="s">
-        <v>8</v>
+      <c r="D196" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E196">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -8440,7 +8432,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B197">
         <v>20221116</v>
@@ -8448,11 +8440,11 @@
       <c r="C197" t="s">
         <v>0</v>
       </c>
-      <c r="D197">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
+      <c r="D197" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E197">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -8478,7 +8470,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B198">
         <v>20221116</v>
@@ -8486,11 +8478,11 @@
       <c r="C198" t="s">
         <v>0</v>
       </c>
-      <c r="D198">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E198" t="s">
-        <v>8</v>
+      <c r="D198" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E198">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -8516,7 +8508,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B199">
         <v>20221116</v>
@@ -8524,11 +8516,11 @@
       <c r="C199" t="s">
         <v>0</v>
       </c>
-      <c r="D199">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E199" t="s">
-        <v>8</v>
+      <c r="D199" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E199">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F199" t="s">
         <v>6</v>
@@ -8554,7 +8546,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B200">
         <v>20221116</v>
@@ -8562,11 +8554,11 @@
       <c r="C200" t="s">
         <v>0</v>
       </c>
-      <c r="D200">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
+      <c r="D200" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E200">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -8592,7 +8584,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B201">
         <v>20221116</v>
@@ -8600,11 +8592,11 @@
       <c r="C201" t="s">
         <v>0</v>
       </c>
-      <c r="D201">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
+      <c r="D201" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E201">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -8630,7 +8622,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B202">
         <v>20221112</v>
@@ -8638,11 +8630,11 @@
       <c r="C202" t="s">
         <v>0</v>
       </c>
-      <c r="D202">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E202" t="s">
-        <v>8</v>
+      <c r="D202" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E202">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F202" t="s">
         <v>6</v>
@@ -8668,7 +8660,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B203">
         <v>20221112</v>
@@ -8676,11 +8668,11 @@
       <c r="C203" t="s">
         <v>0</v>
       </c>
-      <c r="D203">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E203" t="s">
-        <v>8</v>
+      <c r="D203" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E203">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -8706,7 +8698,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B204">
         <v>20221112</v>
@@ -8714,11 +8706,11 @@
       <c r="C204" t="s">
         <v>0</v>
       </c>
-      <c r="D204">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E204" t="s">
-        <v>8</v>
+      <c r="D204" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E204">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -8744,7 +8736,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B205">
         <v>20221112</v>
@@ -8752,11 +8744,11 @@
       <c r="C205" t="s">
         <v>0</v>
       </c>
-      <c r="D205">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E205" t="s">
-        <v>8</v>
+      <c r="D205" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E205">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -8782,7 +8774,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B206">
         <v>20221112</v>
@@ -8790,11 +8782,11 @@
       <c r="C206" t="s">
         <v>0</v>
       </c>
-      <c r="D206">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
+      <c r="D206" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E206">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -8820,7 +8812,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B207">
         <v>20221112</v>
@@ -8828,11 +8820,11 @@
       <c r="C207" t="s">
         <v>0</v>
       </c>
-      <c r="D207">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E207" t="s">
-        <v>8</v>
+      <c r="D207" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E207">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -8858,7 +8850,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B208">
         <v>20221112</v>
@@ -8866,11 +8858,11 @@
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="D208">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E208" t="s">
-        <v>8</v>
+      <c r="D208" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E208">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F208" t="s">
         <v>6</v>
@@ -8896,7 +8888,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B209">
         <v>20221112</v>
@@ -8904,11 +8896,11 @@
       <c r="C209" t="s">
         <v>0</v>
       </c>
-      <c r="D209">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E209" t="s">
-        <v>8</v>
+      <c r="D209" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E209">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -8934,7 +8926,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B210">
         <v>20221112</v>
@@ -8942,11 +8934,11 @@
       <c r="C210" t="s">
         <v>0</v>
       </c>
-      <c r="D210">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E210" t="s">
-        <v>8</v>
+      <c r="D210" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E210">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F210" t="s">
         <v>6</v>
@@ -8972,7 +8964,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B211">
         <v>20221112</v>
@@ -8980,11 +8972,11 @@
       <c r="C211" t="s">
         <v>0</v>
       </c>
-      <c r="D211">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E211" t="s">
-        <v>8</v>
+      <c r="D211" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E211">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -9010,7 +9002,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B212">
         <v>20221112</v>
@@ -9018,11 +9010,11 @@
       <c r="C212" t="s">
         <v>0</v>
       </c>
-      <c r="D212">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
+      <c r="D212" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E212">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -9048,7 +9040,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B213">
         <v>20221112</v>
@@ -9056,11 +9048,11 @@
       <c r="C213" t="s">
         <v>0</v>
       </c>
-      <c r="D213">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E213" t="s">
-        <v>8</v>
+      <c r="D213" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E213">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F213" t="s">
         <v>6</v>
@@ -9086,7 +9078,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B214">
         <v>20221112</v>
@@ -9094,11 +9086,11 @@
       <c r="C214" t="s">
         <v>0</v>
       </c>
-      <c r="D214">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E214" t="s">
-        <v>8</v>
+      <c r="D214" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E214">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F214" t="s">
         <v>6</v>
@@ -9124,7 +9116,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B215">
         <v>20221112</v>
@@ -9132,11 +9124,11 @@
       <c r="C215" t="s">
         <v>0</v>
       </c>
-      <c r="D215">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E215" t="s">
-        <v>8</v>
+      <c r="D215" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E215">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F215" t="s">
         <v>6</v>
@@ -9162,7 +9154,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B216">
         <v>20221112</v>
@@ -9170,11 +9162,11 @@
       <c r="C216" t="s">
         <v>0</v>
       </c>
-      <c r="D216">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E216" t="s">
-        <v>8</v>
+      <c r="D216" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E216">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F216" t="s">
         <v>6</v>
@@ -9200,7 +9192,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B217">
         <v>20221112</v>
@@ -9208,11 +9200,11 @@
       <c r="C217" t="s">
         <v>0</v>
       </c>
-      <c r="D217">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E217" t="s">
-        <v>8</v>
+      <c r="D217" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E217">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F217" t="s">
         <v>6</v>
@@ -9238,7 +9230,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B218">
         <v>20221112</v>
@@ -9246,11 +9238,11 @@
       <c r="C218" t="s">
         <v>0</v>
       </c>
-      <c r="D218">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E218" t="s">
-        <v>8</v>
+      <c r="D218" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E218">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F218" t="s">
         <v>6</v>
@@ -9276,7 +9268,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B219">
         <v>20221112</v>
@@ -9284,11 +9276,11 @@
       <c r="C219" t="s">
         <v>0</v>
       </c>
-      <c r="D219">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E219" t="s">
-        <v>8</v>
+      <c r="D219" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E219">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -9314,7 +9306,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B220">
         <v>20221112</v>
@@ -9322,11 +9314,11 @@
       <c r="C220" t="s">
         <v>0</v>
       </c>
-      <c r="D220">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E220" t="s">
-        <v>8</v>
+      <c r="D220" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E220">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -9352,7 +9344,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B221">
         <v>20221112</v>
@@ -9360,11 +9352,11 @@
       <c r="C221" t="s">
         <v>0</v>
       </c>
-      <c r="D221">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E221" t="s">
-        <v>8</v>
+      <c r="D221" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E221">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -9390,7 +9382,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B222">
         <v>20221112</v>
@@ -9398,11 +9390,11 @@
       <c r="C222" t="s">
         <v>0</v>
       </c>
-      <c r="D222">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
+      <c r="D222" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E222">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F222" t="s">
         <v>6</v>
@@ -9428,7 +9420,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B223">
         <v>20221112</v>
@@ -9436,11 +9428,11 @@
       <c r="C223" t="s">
         <v>0</v>
       </c>
-      <c r="D223">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E223" t="s">
-        <v>8</v>
+      <c r="D223" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E223">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -9466,7 +9458,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B224">
         <v>20221112</v>
@@ -9474,11 +9466,11 @@
       <c r="C224" t="s">
         <v>0</v>
       </c>
-      <c r="D224">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
+      <c r="D224" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E224">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -9504,7 +9496,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B225">
         <v>20221112</v>
@@ -9512,11 +9504,11 @@
       <c r="C225" t="s">
         <v>0</v>
       </c>
-      <c r="D225">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E225" t="s">
-        <v>8</v>
+      <c r="D225" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E225">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F225" t="s">
         <v>6</v>
@@ -9542,7 +9534,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B226">
         <v>20221112</v>
@@ -9550,11 +9542,11 @@
       <c r="C226" t="s">
         <v>0</v>
       </c>
-      <c r="D226">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E226" t="s">
-        <v>8</v>
+      <c r="D226" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E226">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -9580,7 +9572,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B227">
         <v>20221112</v>
@@ -9588,11 +9580,11 @@
       <c r="C227" t="s">
         <v>0</v>
       </c>
-      <c r="D227">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E227" t="s">
-        <v>8</v>
+      <c r="D227" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E227">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F227" t="s">
         <v>6</v>
@@ -9618,7 +9610,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B228">
         <v>20221112</v>
@@ -9626,11 +9618,11 @@
       <c r="C228" t="s">
         <v>0</v>
       </c>
-      <c r="D228">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E228" t="s">
-        <v>8</v>
+      <c r="D228" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E228">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -9656,7 +9648,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B229">
         <v>20221112</v>
@@ -9664,11 +9656,11 @@
       <c r="C229" t="s">
         <v>0</v>
       </c>
-      <c r="D229">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E229" t="s">
-        <v>8</v>
+      <c r="D229" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E229">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F229" t="s">
         <v>6</v>
@@ -9694,7 +9686,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B230">
         <v>20221112</v>
@@ -9702,11 +9694,11 @@
       <c r="C230" t="s">
         <v>0</v>
       </c>
-      <c r="D230">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E230" t="s">
-        <v>8</v>
+      <c r="D230" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E230">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F230" t="s">
         <v>6</v>
@@ -9732,7 +9724,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B231">
         <v>20221112</v>
@@ -9740,11 +9732,11 @@
       <c r="C231" t="s">
         <v>0</v>
       </c>
-      <c r="D231">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E231" t="s">
-        <v>8</v>
+      <c r="D231" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E231">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -9770,7 +9762,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B232">
         <v>20221112</v>
@@ -9778,11 +9770,11 @@
       <c r="C232" t="s">
         <v>0</v>
       </c>
-      <c r="D232">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E232" t="s">
-        <v>8</v>
+      <c r="D232" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E232">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -9808,7 +9800,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B233">
         <v>20221112</v>
@@ -9816,11 +9808,11 @@
       <c r="C233" t="s">
         <v>0</v>
       </c>
-      <c r="D233">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E233" t="s">
-        <v>8</v>
+      <c r="D233" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E233">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F233" t="s">
         <v>6</v>
@@ -9846,7 +9838,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B234">
         <v>20221112</v>
@@ -9854,11 +9846,11 @@
       <c r="C234" t="s">
         <v>0</v>
       </c>
-      <c r="D234">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E234" t="s">
-        <v>8</v>
+      <c r="D234" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E234">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F234" t="s">
         <v>6</v>
@@ -9884,7 +9876,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B235">
         <v>20221112</v>
@@ -9892,11 +9884,11 @@
       <c r="C235" t="s">
         <v>0</v>
       </c>
-      <c r="D235">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E235" t="s">
-        <v>8</v>
+      <c r="D235" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E235">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -9922,7 +9914,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B236">
         <v>20221112</v>
@@ -9930,11 +9922,11 @@
       <c r="C236" t="s">
         <v>0</v>
       </c>
-      <c r="D236">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E236" t="s">
-        <v>8</v>
+      <c r="D236" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E236">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F236" t="s">
         <v>6</v>
@@ -9960,7 +9952,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B237">
         <v>20221112</v>
@@ -9968,11 +9960,11 @@
       <c r="C237" t="s">
         <v>0</v>
       </c>
-      <c r="D237">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E237" t="s">
-        <v>8</v>
+      <c r="D237" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E237">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -9998,7 +9990,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B238">
         <v>20221112</v>
@@ -10006,11 +9998,11 @@
       <c r="C238" t="s">
         <v>0</v>
       </c>
-      <c r="D238">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E238" t="s">
-        <v>8</v>
+      <c r="D238" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E238">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -10036,7 +10028,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B239">
         <v>20221112</v>
@@ -10044,11 +10036,11 @@
       <c r="C239" t="s">
         <v>0</v>
       </c>
-      <c r="D239">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E239" t="s">
-        <v>8</v>
+      <c r="D239" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E239">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -10074,7 +10066,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B240">
         <v>20221112</v>
@@ -10082,11 +10074,11 @@
       <c r="C240" t="s">
         <v>0</v>
       </c>
-      <c r="D240">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E240" t="s">
-        <v>8</v>
+      <c r="D240" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E240">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -10112,7 +10104,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B241">
         <v>20221112</v>
@@ -10120,11 +10112,11 @@
       <c r="C241" t="s">
         <v>0</v>
       </c>
-      <c r="D241">
-        <v>47.421230000000001</v>
-      </c>
-      <c r="E241" t="s">
-        <v>8</v>
+      <c r="D241" s="1">
+        <v>47.859720000000003</v>
+      </c>
+      <c r="E241">
+        <v>8.0363900000000008</v>
       </c>
       <c r="F241" t="s">
         <v>6</v>
